--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mashtayage Danushka Gunathilaka</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2580,7 +2644,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2632,7 +2696,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2684,7 +2748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2736,7 +2800,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2788,7 +2852,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2840,7 +2904,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2892,7 +2956,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2931,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2953,7 +3017,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2990,7 +3054,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3027,7 +3091,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3064,7 +3128,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3101,7 +3165,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3138,7 +3202,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3175,7 +3239,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3212,7 +3276,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3249,7 +3313,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3286,7 +3350,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3323,7 +3387,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3360,7 +3424,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3397,7 +3461,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3434,7 +3498,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3471,7 +3535,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3508,7 +3572,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3545,7 +3609,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3582,7 +3646,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3619,7 +3683,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3656,7 +3720,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3693,7 +3757,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3730,7 +3794,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3767,7 +3831,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3793,6 +3857,573 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>1/5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.17%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13.19%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.83%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.78%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.71%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3917,10 +3918,6 @@
           <t>4062</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3963,10 +3960,6 @@
           <t>4098</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4129,301 +4122,577 @@
           <t>4233</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.78%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.71%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4044</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4054</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4055</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>44.78%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4060</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.71%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13.14%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.38%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.64%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.18%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4487.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -766,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -778,7 +777,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3864,839 +3863,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4062</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4096</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>42.17%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13.19%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23.83%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>44.78%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.71%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13.14%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.38%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.64%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.18%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3906</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3910</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3911</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4011</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4044</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4054</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4055</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4058</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4059</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4060</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>